--- a/TCC00288/src/main/sql/trabalhos/s20181/Vitor_e_Felipe/avaliacao.xlsx
+++ b/TCC00288/src/main/sql/trabalhos/s20181/Vitor_e_Felipe/avaliacao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lapaesleme/GitHub/lleme/TCC00288/src/main/sql/trabalhos/s20181/Vitor_e_Felipe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4690F3E3-6D0E-4041-BAB1-4D6709DDF6CD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AFEA64-8B76-A542-9BDA-4998CBD7DBDE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="30820" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="avaliacao" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Luiz André P Paes Leme</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{C1D31B2F-7273-A74A-AD50-2165375F7E60}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Luiz André P Paes Leme:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Restrições de integridade envolvendo atributos somente da tupla sendo inserida, atualizada ou excluída não são válidas. Ex.: o valor do atributo A deve estar entre 10 e 20.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>OBS.: "Algumas restrições podem ser especificadas ao SGBD e impostas automaticamente. Outras podem ter que ser verificadas por programas de atualização ou no momento da entrada de dados. Em geral, para grandes aplicações, é comum chamar essas restrições de regras de negócio." (Elmasri, Ramez. Sistemas de Bancos de Dados (Seção 1.6.8))</t>
   </si>
@@ -67,25 +130,58 @@
     <t>Nota:</t>
   </si>
   <si>
-    <t>level_up</t>
-  </si>
-  <si>
-    <t>class_up</t>
-  </si>
-  <si>
     <t>AVALIAÇÃO GERAL: ALGUMAS RESTRIÇÕES DE INTEGRIDADE NÃO ESTÃO SUFICIENTEMENTE ESPECIFICADAS PARA ENTENDIMENTO DO PROFESSOR, SÃO DE BAIXA COMPLEXIDADE EM SUA MAIORIA E A IMPLEMENTAÇÃO NÃO CAPTUROU TODOS OS EVENTOS NECESSÁRIOS PARA GARANTI-LAS. FALTOU DOCUMENTAÇÃO.</t>
   </si>
   <si>
     <t>Tema: Jogo RPG</t>
   </si>
   <si>
-    <t>check_initial_attributes</t>
-  </si>
-  <si>
-    <t>check_skill</t>
-  </si>
-  <si>
-    <t>Número máximo de skils equipada.</t>
+    <t>Para personagens controláveis recém-criados no nível 1, evita que cada atributo tenha mais de 5 ou menos de 0 pontos.</t>
+  </si>
+  <si>
+    <t>Personagens controláveis não devem possuir habilidades (skills) incompatíveis com sua classe.</t>
+  </si>
+  <si>
+    <t>Personagens controláveis podem possuir no máximo 5 habilidades (skills) equipadas.</t>
+  </si>
+  <si>
+    <t>Mudança de nível do personagem controlável conforme o ganho de experiência, dado conforme uma fórmula.</t>
+  </si>
+  <si>
+    <t>Mudança de classe conforme o aumento do nível do personagem controlável. Se um personagem pertence a uma classe que evolui para outra classe assim que o personagem chegar em determinado nível ou maior, e esse personagem alcança tal nível, ele deve ter sua classe alterada para a evolução da atual.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>INSERT CONTROLAVEL</t>
+  </si>
+  <si>
+    <t>UPDATE CONTROLAVEL</t>
+  </si>
+  <si>
+    <t>INSERT POSSUI_SKILL</t>
+  </si>
+  <si>
+    <t>UPDATE POSSUI_SKILL</t>
+  </si>
+  <si>
+    <t>INSERT EQUIPOU_SKILL</t>
+  </si>
+  <si>
+    <t>UPDATE EQUIPOU_SKILL</t>
+  </si>
+  <si>
+    <t>DELETE POSSUI_SKILL</t>
+  </si>
+  <si>
+    <t>UPDATE SKILL_PERTENCE_A_CLASSE</t>
+  </si>
+  <si>
+    <t>DELETE SKILL_PERTENCE_A_CLASSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processa e atribui as recompensas a cada personagem por completar missões. Quando uma missão passa para o estado de "completada", o personagem controlável recebe pontos de experiência, dinheiro e/ou ítens, de acordo com o prometido por cada missão. </t>
   </si>
 </sst>
 </file>
@@ -97,7 +193,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;?_);_(@_)"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -266,6 +362,25 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1011,12 +1126,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -1027,9 +1136,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,9 +1170,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,16 +1177,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1094,6 +1209,48 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1115,13 +1272,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="39" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="40" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="22" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1133,50 +1284,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="38" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="30" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1534,11 +1649,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,49 +1661,49 @@
     <col min="1" max="1" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="53"/>
-    </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
+    </row>
+    <row r="2" spans="1:7" s="20" customFormat="1" ht="129" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="35">
-        <f>G33+G38</f>
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="32" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" s="22" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="G2" s="32">
+        <f>G27+G33</f>
+        <v>4.862222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="29" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" s="20" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="45" t="s">
         <v>10</v>
       </c>
@@ -1599,18 +1714,18 @@
       <c r="F4" s="46"/>
       <c r="G4" s="47"/>
     </row>
-    <row r="5" spans="1:10" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+    <row r="5" spans="1:7" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+    </row>
+    <row r="6" spans="1:7" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
@@ -1633,415 +1748,410 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="70">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="52">
+        <v>2</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="74">
+        <v>0</v>
+      </c>
+      <c r="F9" s="56">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G9" s="57">
+        <f>B9*C9*F9</f>
+        <v>1.5555555555555556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="74">
+        <v>1</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="74">
+        <v>1</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="74">
+        <v>1</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="74">
+        <v>0</v>
+      </c>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="74">
+        <v>1</v>
+      </c>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="74">
+        <v>1</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="74">
+        <v>1</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="74">
+        <v>1</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B18" s="52">
         <v>2</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C18" s="55">
+        <v>1</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="74">
+        <v>0</v>
+      </c>
+      <c r="F18" s="56">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G18" s="57">
+        <f>B18*C18*F18</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="74">
+        <v>0</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="74">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="74">
+        <v>1</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="74">
+        <v>0</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="74">
+        <v>0</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="59"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="59"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+    </row>
+    <row r="27" spans="1:10" s="22" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="24">
+        <f>SUM(LARGE(G7:G26,1),LARGE(G7:G26,2),LARGE(G7:G26,3))</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="33">
+        <v>2</v>
+      </c>
+      <c r="C30" s="23">
         <v>0.33</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="56">
+      <c r="D30" s="15"/>
+      <c r="E30" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="38">
         <v>1</v>
       </c>
-      <c r="G7" s="54">
-        <f>B7*C7</f>
+      <c r="G30" s="19">
+        <f>B30*C30*F30</f>
         <v>0.66</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="55"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="63">
+    <row r="31" spans="1:10" ht="128" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="41">
         <v>2</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C31" s="42">
         <v>0.66</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="57">
+      <c r="D31" s="16"/>
+      <c r="E31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="75">
         <v>1</v>
       </c>
-      <c r="G9" s="55">
-        <f>B9*C9*F9</f>
+      <c r="G31" s="19">
+        <f>B31*C31*F31</f>
         <v>1.32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="55"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="63">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="34">
         <v>2</v>
       </c>
-      <c r="C13" s="64">
-        <v>0</v>
-      </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="57">
+      <c r="C32" s="23">
+        <v>0.66</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="39">
         <v>1</v>
       </c>
-      <c r="G13" s="55">
-        <f>B13*C13*F13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="55"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="55"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="55"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="55"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="75"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="61"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="75"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="66"/>
-    </row>
-    <row r="33" spans="1:7" s="24" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="27">
-        <f>SUM(LARGE(G7:G32,1),LARGE(G7:G32,2),LARGE(G7:G32,3))</f>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="24" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="36">
-        <v>2</v>
-      </c>
-      <c r="C36" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="43">
-        <v>1</v>
-      </c>
-      <c r="G36" s="21">
-        <f>B36*C36*F36</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="37">
-        <v>2</v>
-      </c>
-      <c r="C37" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="44">
-        <v>1</v>
-      </c>
-      <c r="G37" s="21">
-        <f>B37*C37*F37</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="24" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="69" t="s">
+      <c r="G32" s="19">
+        <f>B32*C32*F32</f>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="22" customFormat="1" ht="25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="28">
-        <f>SUM(G36:G37)</f>
-        <v>1.32</v>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="25">
+        <f>SUM(LARGE(G30:G32,1),LARGE(G30:G32,2))</f>
+        <v>2.64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="G13:G16"/>
+  <mergeCells count="27">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A1:G1"/>
@@ -2050,8 +2160,28 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C9:C17"/>
+    <mergeCell ref="A9:A17"/>
+    <mergeCell ref="F9:F17"/>
+    <mergeCell ref="G9:G17"/>
+    <mergeCell ref="C18:C23"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="F18:F23"/>
+    <mergeCell ref="G18:G23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A24:A26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>